--- a/templates/b2b_template.xlsx
+++ b/templates/b2b_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22186\Desktop\WORK_FOLDER\1. DEV\avh-b2b-atp-generator\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F324B665-C0BB-448F-967B-53C04C903F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294B457C-E496-4E5F-B336-CB290599A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1783,15 +1783,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1800,9 +1797,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,9 +1828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1859,9 +1850,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1871,6 +1859,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1925,6 +1925,16 @@
     <xf numFmtId="12" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2214,33 +2224,32 @@
   </sheetPr>
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R99" sqref="R99"/>
+    <sheetView tabSelected="1" topLeftCell="E66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K66" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="11.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.61328125" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.07421875" style="26" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="26" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.921875" style="26" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.3828125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="7" style="26" customWidth="1"/>
-    <col min="7" max="7" width="53.15234375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="13.921875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="8.921875" style="26"/>
-    <col min="10" max="10" width="13" style="26" customWidth="1"/>
-    <col min="11" max="11" width="12" style="26" customWidth="1"/>
-    <col min="12" max="12" width="11.53515625" style="26" customWidth="1"/>
-    <col min="13" max="13" width="10.53515625" style="26" customWidth="1"/>
-    <col min="14" max="14" width="13.07421875" style="26" customWidth="1"/>
-    <col min="15" max="16" width="10.3828125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.4609375" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.07421875" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.921875" style="21"/>
-    <col min="21" max="22" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.921875" style="21"/>
+    <col min="1" max="1" width="1.61328125" style="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.07421875" style="23" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.921875" style="23" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.3828125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="7" style="54" customWidth="1"/>
+    <col min="7" max="7" width="53.15234375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.921875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.921875" style="23"/>
+    <col min="10" max="10" width="13" style="23" customWidth="1"/>
+    <col min="11" max="12" width="13.15234375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="10.53515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="13.07421875" style="23" customWidth="1"/>
+    <col min="15" max="16" width="10.3828125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.4609375" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.07421875" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.921875" style="18"/>
+    <col min="21" max="22" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.921875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2249,7 +2258,7 @@
       <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>494</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2262,17 +2271,17 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="54" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:23" s="24" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" s="21" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
         <v>44</v>
       </c>
@@ -2289,7 +2298,7 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
     </row>
-    <row r="9" spans="2:23" s="24" customFormat="1" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" s="21" customFormat="1" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="43" t="s">
         <v>496</v>
       </c>
@@ -2306,7 +2315,7 @@
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
     </row>
-    <row r="10" spans="2:23" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="43" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2332,7 @@
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" spans="2:23" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" s="21" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="43" t="e">
         <f>CONCATENATE("3. Общая стоимость выполненных Подрядчиком работ/услуг по Заказу составляет сумму в размере:  ", L79," тенге без учета НДС, который дополнительно уплачивается в порядке и по ставке, установленной действующим законодательством, и составляет: ", L79*0.12," тенге ")</f>
         <v>#VALUE!</v>
@@ -2341,43 +2350,45 @@
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" spans="2:23" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="2:23" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10" t="s">
+    <row r="12" spans="2:23" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="2:23" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="53" t="s">
         <v>25</v>
       </c>
@@ -2390,2446 +2401,2446 @@
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="2:23" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E15" s="9" t="s">
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="2:23" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="27" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="1" t="e">
         <f>I15*J15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="17">
-        <v>3</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30" t="str">
+      <c r="M15" s="15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26" t="str">
         <f>CONCATENATE("{{",M15,"}}")</f>
         <v>{{3}}</v>
       </c>
     </row>
-    <row r="16" spans="2:23" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E16" s="9" t="s">
+    <row r="16" spans="2:23" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="27" t="s">
         <v>58</v>
       </c>
       <c r="L16" s="1" t="e">
         <f t="shared" ref="L16:L78" si="0">I16*J16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="17">
-        <v>3</v>
-      </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-    </row>
-    <row r="17" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E17" s="9" t="s">
+      <c r="M16" s="15">
+        <v>3</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+    </row>
+    <row r="17" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="27" t="s">
         <v>65</v>
       </c>
       <c r="L17" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="17">
-        <v>3</v>
-      </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-    </row>
-    <row r="18" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E18" s="9" t="s">
+      <c r="M17" s="15">
+        <v>3</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="27" t="s">
         <v>72</v>
       </c>
       <c r="L18" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="17">
-        <v>3</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-    </row>
-    <row r="19" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E19" s="9" t="s">
+      <c r="M18" s="15">
+        <v>3</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+    </row>
+    <row r="19" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="27" t="s">
         <v>79</v>
       </c>
       <c r="L19" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="17">
-        <v>3</v>
-      </c>
-      <c r="N19" s="28"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E20" s="9" t="s">
+      <c r="M19" s="15">
+        <v>3</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+    </row>
+    <row r="20" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="27" t="s">
         <v>86</v>
       </c>
       <c r="L20" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="17">
-        <v>3</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-    </row>
-    <row r="21" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E21" s="9" t="s">
+      <c r="M20" s="15">
+        <v>3</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="27" t="s">
         <v>93</v>
       </c>
       <c r="L21" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="17">
-        <v>3</v>
-      </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-    </row>
-    <row r="22" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E22" s="9" t="s">
+      <c r="M21" s="15">
+        <v>3</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="27" t="s">
         <v>100</v>
       </c>
       <c r="L22" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="17">
-        <v>3</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-    </row>
-    <row r="23" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E23" s="9" t="s">
+      <c r="M22" s="15">
+        <v>3</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+    </row>
+    <row r="23" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="27" t="s">
         <v>107</v>
       </c>
       <c r="L23" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="17">
-        <v>3</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-    </row>
-    <row r="24" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E24" s="9" t="s">
+      <c r="M23" s="15">
+        <v>3</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+    </row>
+    <row r="24" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="27" t="s">
         <v>114</v>
       </c>
       <c r="L24" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="17">
-        <v>3</v>
-      </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-    </row>
-    <row r="25" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E25" s="9" t="s">
+      <c r="M24" s="15">
+        <v>3</v>
+      </c>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+    </row>
+    <row r="25" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="27" t="s">
         <v>121</v>
       </c>
       <c r="L25" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="17">
-        <v>3</v>
-      </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-    </row>
-    <row r="26" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E26" s="9" t="s">
+      <c r="M25" s="15">
+        <v>3</v>
+      </c>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+    </row>
+    <row r="26" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="27" t="s">
         <v>128</v>
       </c>
       <c r="L26" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="17">
-        <v>3</v>
-      </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-    </row>
-    <row r="27" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E27" s="9" t="s">
+      <c r="M26" s="15">
+        <v>3</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+    </row>
+    <row r="27" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="27" t="s">
         <v>135</v>
       </c>
       <c r="L27" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="17">
-        <v>3</v>
-      </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-    </row>
-    <row r="28" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E28" s="9" t="s">
+      <c r="M27" s="15">
+        <v>3</v>
+      </c>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+    </row>
+    <row r="28" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="27" t="s">
         <v>142</v>
       </c>
       <c r="L28" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="17">
-        <v>3</v>
-      </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-    </row>
-    <row r="29" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E29" s="9" t="s">
+      <c r="M28" s="15">
+        <v>3</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+    </row>
+    <row r="29" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="27" t="s">
         <v>149</v>
       </c>
       <c r="L29" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="17">
-        <v>3</v>
-      </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-    </row>
-    <row r="30" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E30" s="9" t="s">
+      <c r="M29" s="15">
+        <v>3</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+    </row>
+    <row r="30" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="27" t="s">
         <v>156</v>
       </c>
       <c r="L30" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="17">
-        <v>3</v>
-      </c>
-      <c r="N30" s="28"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-    </row>
-    <row r="31" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E31" s="9" t="s">
+      <c r="M30" s="15">
+        <v>3</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+    </row>
+    <row r="31" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E31" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="27" t="s">
         <v>163</v>
       </c>
       <c r="L31" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="17">
-        <v>3</v>
-      </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-    </row>
-    <row r="32" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E32" s="9" t="s">
+      <c r="M31" s="15">
+        <v>3</v>
+      </c>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+    </row>
+    <row r="32" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E32" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="27" t="s">
         <v>170</v>
       </c>
       <c r="L32" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="17">
-        <v>3</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-    </row>
-    <row r="33" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E33" s="9" t="s">
+      <c r="M32" s="15">
+        <v>3</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+    </row>
+    <row r="33" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E33" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="27" t="s">
         <v>177</v>
       </c>
       <c r="L33" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="17">
-        <v>3</v>
-      </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-    </row>
-    <row r="34" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E34" s="9" t="s">
+      <c r="M33" s="15">
+        <v>3</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+    </row>
+    <row r="34" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E34" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="27" t="s">
         <v>184</v>
       </c>
       <c r="L34" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="17">
-        <v>3</v>
-      </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-    </row>
-    <row r="35" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E35" s="9" t="s">
+      <c r="M34" s="15">
+        <v>3</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+    </row>
+    <row r="35" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E35" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="27" t="s">
         <v>191</v>
       </c>
       <c r="L35" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="17">
-        <v>3</v>
-      </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-    </row>
-    <row r="36" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E36" s="9" t="s">
+      <c r="M35" s="15">
+        <v>3</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+    </row>
+    <row r="36" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E36" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="27" t="s">
         <v>198</v>
       </c>
       <c r="L36" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="17">
-        <v>3</v>
-      </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-    </row>
-    <row r="37" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E37" s="9" t="s">
+      <c r="M36" s="15">
+        <v>3</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+    </row>
+    <row r="37" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="27" t="s">
         <v>205</v>
       </c>
       <c r="L37" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="17">
-        <v>3</v>
-      </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-    </row>
-    <row r="38" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E38" s="9" t="s">
+      <c r="M37" s="15">
+        <v>3</v>
+      </c>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+    </row>
+    <row r="38" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E38" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="27" t="s">
         <v>212</v>
       </c>
       <c r="L38" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="17">
-        <v>3</v>
-      </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-    </row>
-    <row r="39" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E39" s="9" t="s">
+      <c r="M38" s="15">
+        <v>3</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+    </row>
+    <row r="39" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E39" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J39" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="K39" s="31" t="s">
+      <c r="K39" s="27" t="s">
         <v>219</v>
       </c>
       <c r="L39" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="17">
-        <v>3</v>
-      </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-    </row>
-    <row r="40" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E40" s="9" t="s">
+      <c r="M39" s="15">
+        <v>3</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+    </row>
+    <row r="40" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E40" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="27" t="s">
         <v>226</v>
       </c>
       <c r="L40" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="17">
-        <v>3</v>
-      </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-    </row>
-    <row r="41" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E41" s="9" t="s">
+      <c r="M40" s="15">
+        <v>3</v>
+      </c>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+    </row>
+    <row r="41" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E41" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="31" t="s">
+      <c r="J41" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="27" t="s">
         <v>233</v>
       </c>
       <c r="L41" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="17">
-        <v>3</v>
-      </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-    </row>
-    <row r="42" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E42" s="9" t="s">
+      <c r="M41" s="15">
+        <v>3</v>
+      </c>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+    </row>
+    <row r="42" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E42" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="J42" s="31" t="s">
+      <c r="J42" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="27" t="s">
         <v>240</v>
       </c>
       <c r="L42" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="17">
-        <v>3</v>
-      </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-    </row>
-    <row r="43" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E43" s="9" t="s">
+      <c r="M42" s="15">
+        <v>3</v>
+      </c>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+    </row>
+    <row r="43" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E43" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="27" t="s">
         <v>247</v>
       </c>
       <c r="L43" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M43" s="17">
-        <v>3</v>
-      </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-    </row>
-    <row r="44" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E44" s="9" t="s">
+      <c r="M43" s="15">
+        <v>3</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+    </row>
+    <row r="44" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E44" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="J44" s="31" t="s">
+      <c r="J44" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="27" t="s">
         <v>254</v>
       </c>
       <c r="L44" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M44" s="17">
-        <v>3</v>
-      </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-    </row>
-    <row r="45" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E45" s="9" t="s">
+      <c r="M44" s="15">
+        <v>3</v>
+      </c>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+    </row>
+    <row r="45" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E45" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="27" t="s">
         <v>261</v>
       </c>
       <c r="L45" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M45" s="17">
-        <v>3</v>
-      </c>
-      <c r="N45" s="28"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-    </row>
-    <row r="46" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E46" s="9" t="s">
+      <c r="M45" s="15">
+        <v>3</v>
+      </c>
+      <c r="N45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+    </row>
+    <row r="46" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E46" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="27" t="s">
         <v>268</v>
       </c>
       <c r="L46" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M46" s="17">
-        <v>3</v>
-      </c>
-      <c r="N46" s="28"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-    </row>
-    <row r="47" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E47" s="9" t="s">
+      <c r="M46" s="15">
+        <v>3</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+    </row>
+    <row r="47" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E47" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="27" t="s">
         <v>275</v>
       </c>
       <c r="L47" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M47" s="17">
-        <v>3</v>
-      </c>
-      <c r="N47" s="28"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-    </row>
-    <row r="48" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E48" s="9" t="s">
+      <c r="M47" s="15">
+        <v>3</v>
+      </c>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+    </row>
+    <row r="48" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E48" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="27" t="s">
         <v>282</v>
       </c>
       <c r="L48" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M48" s="17">
-        <v>3</v>
-      </c>
-      <c r="N48" s="28"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-    </row>
-    <row r="49" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E49" s="9" t="s">
+      <c r="M48" s="15">
+        <v>3</v>
+      </c>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+    </row>
+    <row r="49" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E49" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="27" t="s">
         <v>289</v>
       </c>
       <c r="L49" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M49" s="17">
-        <v>3</v>
-      </c>
-      <c r="N49" s="28"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-    </row>
-    <row r="50" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E50" s="9" t="s">
+      <c r="M49" s="15">
+        <v>3</v>
+      </c>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+    </row>
+    <row r="50" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E50" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="27" t="s">
         <v>296</v>
       </c>
       <c r="L50" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M50" s="17">
-        <v>3</v>
-      </c>
-      <c r="N50" s="28"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-    </row>
-    <row r="51" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E51" s="9" t="s">
+      <c r="M50" s="15">
+        <v>3</v>
+      </c>
+      <c r="N50" s="25"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+    </row>
+    <row r="51" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E51" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="27" t="s">
         <v>303</v>
       </c>
       <c r="L51" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M51" s="17">
-        <v>3</v>
-      </c>
-      <c r="N51" s="28"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-    </row>
-    <row r="52" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E52" s="9" t="s">
+      <c r="M51" s="15">
+        <v>3</v>
+      </c>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+    </row>
+    <row r="52" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E52" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I52" s="32" t="s">
+      <c r="I52" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="K52" s="31" t="s">
+      <c r="K52" s="27" t="s">
         <v>310</v>
       </c>
       <c r="L52" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M52" s="17">
-        <v>3</v>
-      </c>
-      <c r="N52" s="28"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-    </row>
-    <row r="53" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E53" s="9" t="s">
+      <c r="M52" s="15">
+        <v>3</v>
+      </c>
+      <c r="N52" s="25"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+    </row>
+    <row r="53" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E53" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="I53" s="32" t="s">
+      <c r="I53" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="J53" s="31" t="s">
+      <c r="J53" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="27" t="s">
         <v>317</v>
       </c>
       <c r="L53" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M53" s="17">
-        <v>3</v>
-      </c>
-      <c r="N53" s="28"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-    </row>
-    <row r="54" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E54" s="9" t="s">
+      <c r="M53" s="15">
+        <v>3</v>
+      </c>
+      <c r="N53" s="25"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+    </row>
+    <row r="54" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E54" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="32" t="s">
+      <c r="I54" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="J54" s="31" t="s">
+      <c r="J54" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="27" t="s">
         <v>324</v>
       </c>
       <c r="L54" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M54" s="17">
-        <v>3</v>
-      </c>
-      <c r="N54" s="28"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-    </row>
-    <row r="55" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E55" s="9" t="s">
+      <c r="M54" s="15">
+        <v>3</v>
+      </c>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+    </row>
+    <row r="55" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E55" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="I55" s="32" t="s">
+      <c r="I55" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="27" t="s">
         <v>331</v>
       </c>
       <c r="L55" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M55" s="17">
-        <v>3</v>
-      </c>
-      <c r="N55" s="28"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-    </row>
-    <row r="56" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E56" s="9" t="s">
+      <c r="M55" s="15">
+        <v>3</v>
+      </c>
+      <c r="N55" s="25"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+    </row>
+    <row r="56" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E56" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="I56" s="32" t="s">
+      <c r="I56" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="J56" s="31" t="s">
+      <c r="J56" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="27" t="s">
         <v>338</v>
       </c>
       <c r="L56" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M56" s="17">
-        <v>3</v>
-      </c>
-      <c r="N56" s="28"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-    </row>
-    <row r="57" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E57" s="9" t="s">
+      <c r="M56" s="15">
+        <v>3</v>
+      </c>
+      <c r="N56" s="25"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+    </row>
+    <row r="57" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E57" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="I57" s="32" t="s">
+      <c r="I57" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="J57" s="31" t="s">
+      <c r="J57" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="K57" s="31" t="s">
+      <c r="K57" s="27" t="s">
         <v>345</v>
       </c>
       <c r="L57" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M57" s="17">
-        <v>3</v>
-      </c>
-      <c r="N57" s="28"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-    </row>
-    <row r="58" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E58" s="9" t="s">
+      <c r="M57" s="15">
+        <v>3</v>
+      </c>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+    </row>
+    <row r="58" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E58" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="I58" s="32" t="s">
+      <c r="I58" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="J58" s="31" t="s">
+      <c r="J58" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="K58" s="31" t="s">
+      <c r="K58" s="27" t="s">
         <v>352</v>
       </c>
       <c r="L58" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M58" s="17">
-        <v>3</v>
-      </c>
-      <c r="N58" s="28"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-    </row>
-    <row r="59" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E59" s="9" t="s">
+      <c r="M58" s="15">
+        <v>3</v>
+      </c>
+      <c r="N58" s="25"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+    </row>
+    <row r="59" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E59" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="I59" s="32" t="s">
+      <c r="I59" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="J59" s="31" t="s">
+      <c r="J59" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="K59" s="31" t="s">
+      <c r="K59" s="27" t="s">
         <v>359</v>
       </c>
       <c r="L59" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M59" s="17">
-        <v>3</v>
-      </c>
-      <c r="N59" s="28"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-    </row>
-    <row r="60" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E60" s="9" t="s">
+      <c r="M59" s="15">
+        <v>3</v>
+      </c>
+      <c r="N59" s="25"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+    </row>
+    <row r="60" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E60" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="I60" s="32" t="s">
+      <c r="I60" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="J60" s="31" t="s">
+      <c r="J60" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="K60" s="31" t="s">
+      <c r="K60" s="27" t="s">
         <v>366</v>
       </c>
       <c r="L60" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M60" s="17">
-        <v>3</v>
-      </c>
-      <c r="N60" s="28"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-    </row>
-    <row r="61" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E61" s="9" t="s">
+      <c r="M60" s="15">
+        <v>3</v>
+      </c>
+      <c r="N60" s="25"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+    </row>
+    <row r="61" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E61" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="J61" s="31" t="s">
+      <c r="J61" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="27" t="s">
         <v>373</v>
       </c>
       <c r="L61" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M61" s="17">
-        <v>3</v>
-      </c>
-      <c r="N61" s="28"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-    </row>
-    <row r="62" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E62" s="9" t="s">
+      <c r="M61" s="15">
+        <v>3</v>
+      </c>
+      <c r="N61" s="25"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+    </row>
+    <row r="62" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E62" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="I62" s="32" t="s">
+      <c r="I62" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="K62" s="31" t="s">
+      <c r="K62" s="27" t="s">
         <v>380</v>
       </c>
       <c r="L62" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M62" s="17">
-        <v>3</v>
-      </c>
-      <c r="N62" s="28"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-    </row>
-    <row r="63" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E63" s="9" t="s">
+      <c r="M62" s="15">
+        <v>3</v>
+      </c>
+      <c r="N62" s="25"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+    </row>
+    <row r="63" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E63" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="I63" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="J63" s="31" t="s">
+      <c r="J63" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="K63" s="31" t="s">
+      <c r="K63" s="27" t="s">
         <v>387</v>
       </c>
       <c r="L63" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M63" s="17">
-        <v>3</v>
-      </c>
-      <c r="N63" s="28"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-    </row>
-    <row r="64" spans="5:21" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E64" s="9" t="s">
+      <c r="M63" s="15">
+        <v>3</v>
+      </c>
+      <c r="N63" s="25"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+    </row>
+    <row r="64" spans="5:21" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E64" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="I64" s="32" t="s">
+      <c r="I64" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="J64" s="31" t="s">
+      <c r="J64" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="K64" s="31" t="s">
+      <c r="K64" s="27" t="s">
         <v>394</v>
       </c>
       <c r="L64" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M64" s="17">
-        <v>3</v>
-      </c>
-      <c r="N64" s="28"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-    </row>
-    <row r="65" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E65" s="9" t="s">
+      <c r="M64" s="15">
+        <v>3</v>
+      </c>
+      <c r="N64" s="25"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
+      <c r="U64" s="26"/>
+    </row>
+    <row r="65" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E65" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="J65" s="31" t="s">
+      <c r="J65" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="27" t="s">
         <v>401</v>
       </c>
       <c r="L65" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M65" s="17">
-        <v>3</v>
-      </c>
-      <c r="N65" s="28"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-    </row>
-    <row r="66" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E66" s="9" t="s">
+      <c r="M65" s="15">
+        <v>3</v>
+      </c>
+      <c r="N65" s="25"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+    </row>
+    <row r="66" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E66" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="I66" s="32" t="s">
+      <c r="I66" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="K66" s="31" t="s">
+      <c r="K66" s="27" t="s">
         <v>408</v>
       </c>
       <c r="L66" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M66" s="17">
-        <v>3</v>
-      </c>
-      <c r="N66" s="28"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-    </row>
-    <row r="67" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E67" s="9" t="s">
+      <c r="M66" s="15">
+        <v>3</v>
+      </c>
+      <c r="N66" s="25"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+    </row>
+    <row r="67" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E67" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K67" s="27" t="s">
         <v>415</v>
       </c>
       <c r="L67" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M67" s="17">
-        <v>3</v>
-      </c>
-      <c r="N67" s="28"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-    </row>
-    <row r="68" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E68" s="9" t="s">
+      <c r="M67" s="15">
+        <v>3</v>
+      </c>
+      <c r="N67" s="25"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+    </row>
+    <row r="68" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E68" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="I68" s="32" t="s">
+      <c r="I68" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="J68" s="31" t="s">
+      <c r="J68" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="K68" s="31" t="s">
+      <c r="K68" s="27" t="s">
         <v>422</v>
       </c>
       <c r="L68" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M68" s="17">
-        <v>3</v>
-      </c>
-      <c r="N68" s="28"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-    </row>
-    <row r="69" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E69" s="9" t="s">
+      <c r="M68" s="15">
+        <v>3</v>
+      </c>
+      <c r="N68" s="25"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+    </row>
+    <row r="69" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E69" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="I69" s="32" t="s">
+      <c r="I69" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="J69" s="31" t="s">
+      <c r="J69" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="K69" s="31" t="s">
+      <c r="K69" s="27" t="s">
         <v>429</v>
       </c>
       <c r="L69" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M69" s="17">
-        <v>3</v>
-      </c>
-      <c r="N69" s="28"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-    </row>
-    <row r="70" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E70" s="9" t="s">
+      <c r="M69" s="15">
+        <v>3</v>
+      </c>
+      <c r="N69" s="25"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+    </row>
+    <row r="70" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E70" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="J70" s="31" t="s">
+      <c r="J70" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="K70" s="31" t="s">
+      <c r="K70" s="27" t="s">
         <v>436</v>
       </c>
       <c r="L70" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M70" s="17">
-        <v>3</v>
-      </c>
-      <c r="N70" s="28"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-    </row>
-    <row r="71" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E71" s="9" t="s">
+      <c r="M70" s="15">
+        <v>3</v>
+      </c>
+      <c r="N70" s="25"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="26"/>
+    </row>
+    <row r="71" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E71" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="I71" s="32" t="s">
+      <c r="I71" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="J71" s="31" t="s">
+      <c r="J71" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="K71" s="31" t="s">
+      <c r="K71" s="27" t="s">
         <v>443</v>
       </c>
       <c r="L71" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M71" s="17">
-        <v>3</v>
-      </c>
-      <c r="N71" s="28"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-    </row>
-    <row r="72" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E72" s="9" t="s">
+      <c r="M71" s="15">
+        <v>3</v>
+      </c>
+      <c r="N71" s="25"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+    </row>
+    <row r="72" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E72" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="I72" s="32" t="s">
+      <c r="I72" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="J72" s="31" t="s">
+      <c r="J72" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="K72" s="31" t="s">
+      <c r="K72" s="27" t="s">
         <v>450</v>
       </c>
       <c r="L72" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M72" s="17">
-        <v>3</v>
-      </c>
-      <c r="N72" s="28"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-    </row>
-    <row r="73" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E73" s="9" t="s">
+      <c r="M72" s="15">
+        <v>3</v>
+      </c>
+      <c r="N72" s="25"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="26"/>
+    </row>
+    <row r="73" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E73" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="I73" s="32" t="s">
+      <c r="I73" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="K73" s="31" t="s">
+      <c r="K73" s="27" t="s">
         <v>457</v>
       </c>
       <c r="L73" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M73" s="17">
-        <v>3</v>
-      </c>
-      <c r="N73" s="28"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="30"/>
-    </row>
-    <row r="74" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E74" s="9" t="s">
+      <c r="M73" s="15">
+        <v>3</v>
+      </c>
+      <c r="N73" s="25"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+    </row>
+    <row r="74" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E74" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="I74" s="32" t="s">
+      <c r="I74" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="J74" s="31" t="s">
+      <c r="J74" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="K74" s="31" t="s">
+      <c r="K74" s="27" t="s">
         <v>464</v>
       </c>
       <c r="L74" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M74" s="17">
-        <v>3</v>
-      </c>
-      <c r="N74" s="28"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-    </row>
-    <row r="75" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E75" s="9" t="s">
+      <c r="M74" s="15">
+        <v>3</v>
+      </c>
+      <c r="N74" s="25"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
+      <c r="R74" s="26"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="26"/>
+      <c r="U74" s="26"/>
+    </row>
+    <row r="75" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E75" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="I75" s="32" t="s">
+      <c r="I75" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="J75" s="31" t="s">
+      <c r="J75" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="K75" s="31" t="s">
+      <c r="K75" s="27" t="s">
         <v>471</v>
       </c>
       <c r="L75" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="17">
-        <v>3</v>
-      </c>
-      <c r="N75" s="28"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
-      <c r="T75" s="30"/>
-      <c r="U75" s="30"/>
-    </row>
-    <row r="76" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E76" s="9" t="s">
+      <c r="M75" s="15">
+        <v>3</v>
+      </c>
+      <c r="N75" s="25"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+    </row>
+    <row r="76" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E76" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="I76" s="32" t="s">
+      <c r="I76" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="K76" s="31" t="s">
+      <c r="K76" s="27" t="s">
         <v>478</v>
       </c>
       <c r="L76" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="17">
-        <v>3</v>
-      </c>
-      <c r="N76" s="28"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-    </row>
-    <row r="77" spans="5:22" s="27" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E77" s="9" t="s">
+      <c r="M76" s="15">
+        <v>3</v>
+      </c>
+      <c r="N76" s="25"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+    </row>
+    <row r="77" spans="5:22" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E77" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="J77" s="31" t="s">
+      <c r="J77" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="K77" s="31" t="s">
+      <c r="K77" s="27" t="s">
         <v>485</v>
       </c>
       <c r="L77" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="17">
-        <v>3</v>
-      </c>
-      <c r="N77" s="28"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-    </row>
-    <row r="78" spans="5:22" s="26" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E78" s="9" t="s">
+      <c r="M77" s="15">
+        <v>3</v>
+      </c>
+      <c r="N77" s="25"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+    </row>
+    <row r="78" spans="5:22" s="23" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="E78" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="I78" s="32" t="s">
+      <c r="I78" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="J78" s="31" t="s">
+      <c r="J78" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="K78" s="31" t="s">
+      <c r="K78" s="27" t="s">
         <v>492</v>
       </c>
       <c r="L78" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="17">
-        <v>3</v>
-      </c>
-      <c r="N78" s="16"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="30"/>
-      <c r="V78" s="27"/>
-    </row>
-    <row r="79" spans="5:22" s="26" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="M78" s="15">
+        <v>3</v>
+      </c>
+      <c r="N78" s="14"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="24"/>
+    </row>
+    <row r="79" spans="5:22" s="23" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
       <c r="E79" s="36" t="s">
         <v>31</v>
       </c>
@@ -4839,17 +4850,17 @@
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
       <c r="K79" s="38"/>
-      <c r="L79" s="8" t="e">
+      <c r="L79" s="6" t="e">
         <f>SUM(L15:L78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="R79" s="12"/>
-    </row>
-    <row r="80" spans="5:22" s="26" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="R79" s="10"/>
+    </row>
+    <row r="80" spans="5:22" s="23" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
       <c r="E80" s="39" t="s">
         <v>32</v>
       </c>
@@ -4859,22 +4870,23 @@
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
-      <c r="L80" s="33" t="e">
+      <c r="L80" s="29" t="e">
         <f>L79*1.12</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="U80" s="12"/>
-    </row>
-    <row r="81" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="25"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-    </row>
-    <row r="82" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="U80" s="10"/>
+    </row>
+    <row r="81" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="31"/>
+      <c r="F81" s="54"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+    </row>
+    <row r="82" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E82" s="40" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +4900,7 @@
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
     </row>
-    <row r="83" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E83" s="40" t="s">
         <v>11</v>
       </c>
@@ -4901,9 +4913,9 @@
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="35"/>
-      <c r="O83" s="12"/>
-    </row>
-    <row r="84" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O83" s="10"/>
+    </row>
+    <row r="84" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E84" s="40" t="s">
         <v>12</v>
       </c>
@@ -4917,26 +4929,28 @@
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
     </row>
-    <row r="85" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="21"/>
-    </row>
-    <row r="86" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="3" t="s">
+    <row r="85" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="32"/>
+      <c r="F85" s="54"/>
+    </row>
+    <row r="86" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="5:15" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E87" s="29"/>
-      <c r="F87" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="22" t="s">
+      <c r="F86" s="54"/>
+    </row>
+    <row r="87" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E87" s="56"/>
+      <c r="F87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I87" s="22" t="s">
+      <c r="I87" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J87" s="44" t="s">
@@ -4947,22 +4961,22 @@
         <v>21</v>
       </c>
       <c r="M87" s="44"/>
-      <c r="N87" s="22" t="s">
+      <c r="N87" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="4"/>
-      <c r="F88" s="19">
+    <row r="88" spans="5:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="57"/>
+      <c r="F88" s="30">
         <v>1</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H88" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J88" s="46" t="s">
@@ -4973,24 +4987,26 @@
         <v>34</v>
       </c>
       <c r="M88" s="48"/>
-      <c r="N88" s="20" t="s">
+      <c r="N88" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="5" t="s">
+    <row r="89" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="4"/>
+      <c r="F89" s="54"/>
+    </row>
+    <row r="90" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="5:15" s="26" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="29"/>
-      <c r="F91" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="22" t="s">
+      <c r="F90" s="54"/>
+    </row>
+    <row r="91" spans="5:15" s="23" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="56"/>
+      <c r="F91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="44" t="s">
@@ -4998,7 +5014,7 @@
       </c>
       <c r="I91" s="45"/>
       <c r="J91" s="45"/>
-      <c r="K91" s="22" t="s">
+      <c r="K91" s="19" t="s">
         <v>26</v>
       </c>
       <c r="L91" s="44" t="s">
@@ -5007,12 +5023,12 @@
       <c r="M91" s="49"/>
       <c r="N91" s="49"/>
     </row>
-    <row r="92" spans="5:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="4"/>
-      <c r="F92" s="19">
+    <row r="92" spans="5:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="57"/>
+      <c r="F92" s="30">
         <v>1</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H92" s="50" t="s">
@@ -5020,7 +5036,7 @@
       </c>
       <c r="I92" s="51"/>
       <c r="J92" s="52"/>
-      <c r="K92" s="13" t="s">
+      <c r="K92" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L92" s="48" t="s">
@@ -5029,10 +5045,11 @@
       <c r="M92" s="48"/>
       <c r="N92" s="48"/>
     </row>
-    <row r="93" spans="5:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E93" s="21"/>
-    </row>
-    <row r="94" spans="5:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="32"/>
+      <c r="F93" s="54"/>
+    </row>
+    <row r="94" spans="5:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E94" s="43" t="s">
         <v>17</v>
       </c>
@@ -5046,7 +5063,7 @@
       <c r="M94" s="42"/>
       <c r="N94" s="42"/>
     </row>
-    <row r="95" spans="5:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E95" s="43" t="s">
         <v>18</v>
       </c>
@@ -5060,7 +5077,7 @@
       <c r="M95" s="42"/>
       <c r="N95" s="42"/>
     </row>
-    <row r="96" spans="5:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E96" s="41" t="s">
         <v>19</v>
       </c>
@@ -5074,47 +5091,50 @@
       <c r="M96" s="42"/>
       <c r="N96" s="42"/>
     </row>
-    <row r="97" spans="5:11" s="26" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="5:11" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E98" s="5" t="s">
+    <row r="97" spans="5:11" s="23" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="5"/>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="5:11" s="23" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
       <c r="J98" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="5:11" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:11" s="23" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E99" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
-      <c r="H99" s="25"/>
+      <c r="H99" s="22"/>
       <c r="J99" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="5:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E100" s="7" t="s">
+    <row r="100" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="55" t="s">
         <v>35</v>
       </c>
+      <c r="F100" s="54"/>
       <c r="J100" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="5:11" s="26" customFormat="1" ht="11.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E101" s="25" t="s">
+    <row r="101" spans="5:11" s="23" customFormat="1" ht="11.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="5:11" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="54"/>
+    </row>
+    <row r="102" spans="5:11" s="23" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E102" s="34" t="s">
         <v>43</v>
       </c>
@@ -5125,17 +5145,21 @@
       </c>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="5:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="25"/>
-    </row>
-    <row r="104" spans="5:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E104" s="25"/>
-    </row>
-    <row r="105" spans="5:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E105" s="25"/>
-    </row>
-    <row r="106" spans="5:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E106" s="25"/>
+    <row r="103" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="31"/>
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="31"/>
+      <c r="F104" s="54"/>
+    </row>
+    <row r="105" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="31"/>
+      <c r="F105" s="54"/>
+    </row>
+    <row r="106" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="31"/>
+      <c r="F106" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/templates/b2b_template.xlsx
+++ b/templates/b2b_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22186\Desktop\WORK_FOLDER\1. DEV\avh-b2b-atp-generator\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294B457C-E496-4E5F-B336-CB290599A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F77DAE-35C3-4344-8B39-AC46DE23A5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="498">
   <si>
     <t>примечание</t>
   </si>
@@ -1599,6 +1599,9 @@
   </si>
   <si>
     <t xml:space="preserve">1. Подрядчик сдаёт, а Заказчик принимает работы/услуг, выполненные на основании и в соответствии с Заказом № {{number}} от {{date}} г. к Рамочному договору подряда №188567от «3» марта 2023 года. </t>
+  </si>
+  <si>
+    <t>3. Общая стоимость выполненных Подрядчиком работ/услуг по Заказу составляет сумму в размере:  L79 тенге без учета НДС, который дополнительно уплачивается в порядке и по ставке, установленной действующим законодательством, и составляет: L80 тенге</t>
   </si>
 </sst>
 </file>
@@ -1872,6 +1875,28 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -1894,12 +1919,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,9 +1931,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1923,19 +1939,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2224,8 +2227,8 @@
   </sheetPr>
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K66" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="11.6" x14ac:dyDescent="0.3"/>
@@ -2234,8 +2237,8 @@
     <col min="2" max="2" width="2.07421875" style="23" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="23" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.921875" style="23" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.3828125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="7" style="54" customWidth="1"/>
+    <col min="5" max="5" width="4.3828125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="7" style="34" customWidth="1"/>
     <col min="7" max="7" width="53.15234375" style="23" customWidth="1"/>
     <col min="8" max="8" width="13.921875" style="23" customWidth="1"/>
     <col min="9" max="9" width="8.921875" style="23"/>
@@ -2271,7 +2274,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="34" t="s">
         <v>493</v>
       </c>
     </row>
@@ -2282,78 +2285,77 @@
     </row>
     <row r="7" spans="2:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:23" s="21" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="2:23" s="21" customFormat="1" ht="35.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="2:23" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="2:23" s="21" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="e">
-        <f>CONCATENATE("3. Общая стоимость выполненных Подрядчиком работ/услуг по Заказу составляет сумму в размере:  ", L79," тенге без учета НДС, который дополнительно уплачивается в порядке и по ставке, установленной действующим законодательством, и составляет: ", L79*0.12," тенге ")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="B11" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="2:23" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:23" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="8" t="s">
@@ -2389,18 +2391,18 @@
       <c r="P13" s="10"/>
     </row>
     <row r="14" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="2:23" s="24" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
@@ -4841,15 +4843,15 @@
       <c r="V78" s="24"/>
     </row>
     <row r="79" spans="5:22" s="23" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="38"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="46"/>
       <c r="L79" s="6" t="e">
         <f>SUM(L15:L78)</f>
         <v>#VALUE!</v>
@@ -4861,15 +4863,15 @@
       <c r="R79" s="10"/>
     </row>
     <row r="80" spans="5:22" s="23" customFormat="1" ht="12.9" x14ac:dyDescent="0.3">
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
       <c r="L80" s="29" t="e">
         <f>L79*1.12</f>
         <v>#VALUE!</v>
@@ -4882,65 +4884,65 @@
     </row>
     <row r="81" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E81" s="31"/>
-      <c r="F81" s="54"/>
+      <c r="F81" s="34"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
     </row>
     <row r="82" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
     </row>
     <row r="83" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
       <c r="O83" s="10"/>
     </row>
     <row r="84" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
     </row>
     <row r="85" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E85" s="32"/>
-      <c r="F85" s="54"/>
+      <c r="F85" s="34"/>
     </row>
     <row r="86" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="55" t="s">
+      <c r="E86" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="54"/>
+      <c r="F86" s="34"/>
     </row>
     <row r="87" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E87" s="56"/>
+      <c r="E87" s="36"/>
       <c r="F87" s="8" t="s">
         <v>3</v>
       </c>
@@ -4953,20 +4955,20 @@
       <c r="I87" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="44" t="s">
+      <c r="J87" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K87" s="45"/>
-      <c r="L87" s="44" t="s">
+      <c r="K87" s="51"/>
+      <c r="L87" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M87" s="44"/>
+      <c r="M87" s="50"/>
       <c r="N87" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="5:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="57"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="30">
         <v>1</v>
       </c>
@@ -4979,121 +4981,121 @@
       <c r="I88" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J88" s="46" t="s">
+      <c r="J88" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K88" s="45"/>
-      <c r="L88" s="47" t="s">
+      <c r="K88" s="51"/>
+      <c r="L88" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="M88" s="48"/>
+      <c r="M88" s="38"/>
       <c r="N88" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E89" s="4"/>
-      <c r="F89" s="54"/>
+      <c r="F89" s="34"/>
     </row>
     <row r="90" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="54"/>
+      <c r="F90" s="34"/>
     </row>
     <row r="91" spans="5:15" s="23" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="56"/>
+      <c r="E91" s="36"/>
       <c r="F91" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="44" t="s">
+      <c r="H91" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L91" s="44" t="s">
+      <c r="L91" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M91" s="49"/>
-      <c r="N91" s="49"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
     </row>
     <row r="92" spans="5:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="57"/>
+      <c r="E92" s="37"/>
       <c r="F92" s="30">
         <v>1</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="51"/>
-      <c r="J92" s="52"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="57"/>
       <c r="K92" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="48" t="s">
+      <c r="L92" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
     </row>
     <row r="93" spans="5:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E93" s="32"/>
-      <c r="F93" s="54"/>
+      <c r="F93" s="34"/>
     </row>
     <row r="94" spans="5:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E94" s="43" t="s">
+      <c r="E94" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
     </row>
     <row r="95" spans="5:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E95" s="43" t="s">
+      <c r="E95" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
     </row>
     <row r="96" spans="5:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
     </row>
     <row r="97" spans="5:11" s="23" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E97" s="5"/>
-      <c r="F97" s="54"/>
+      <c r="F97" s="34"/>
     </row>
     <row r="98" spans="5:11" s="23" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E98" s="4" t="s">
@@ -5107,11 +5109,11 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="5:11" s="23" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
       <c r="H99" s="22"/>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -5119,10 +5121,10 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E100" s="55" t="s">
+      <c r="E100" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="54"/>
+      <c r="F100" s="34"/>
       <c r="J100" s="2" t="s">
         <v>39</v>
       </c>
@@ -5132,14 +5134,14 @@
       <c r="E101" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="54"/>
+      <c r="F101" s="34"/>
     </row>
     <row r="102" spans="5:11" s="23" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
       <c r="J102" s="2" t="s">
         <v>40</v>
       </c>
@@ -5147,29 +5149,22 @@
     </row>
     <row r="103" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E103" s="31"/>
-      <c r="F103" s="54"/>
+      <c r="F103" s="34"/>
     </row>
     <row r="104" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E104" s="31"/>
-      <c r="F104" s="54"/>
+      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E105" s="31"/>
-      <c r="F105" s="54"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="5:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E106" s="31"/>
-      <c r="F106" s="54"/>
+      <c r="F106" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="E94:N94"/>
-    <mergeCell ref="E14:N14"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B11:N11"/>
     <mergeCell ref="E99:G99"/>
     <mergeCell ref="E102:G102"/>
     <mergeCell ref="E79:K79"/>
@@ -5186,6 +5181,13 @@
     <mergeCell ref="H91:J91"/>
     <mergeCell ref="L91:N91"/>
     <mergeCell ref="H92:J92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="E94:N94"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B11:N11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
